--- a/MMF_Tracker_2026_For_Website.xlsx
+++ b/MMF_Tracker_2026_For_Website.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b295f585afa7f2f/Apps/Netlify/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b295f585afa7f2f/Apps/Netlify/Index update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_04BDBAC9A4B12811FE33E3A57621DB91EAAC4F11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C7440D-64F6-409F-9567-6ACD0B9C346F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F501D98F-7C0E-4915-887F-A08CF6315606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E66D1A9-6D1B-4E05-98D0-4E2AE1015C12}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2160" windowWidth="22275" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="December" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -174,7 +175,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +197,13 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,17 +235,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,14 +566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -591,13 +605,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -611,14 +625,14 @@
       <c r="C5" s="2">
         <v>6000</v>
       </c>
-      <c r="D5" s="2">
-        <v>16.136837285171609</v>
+      <c r="D5" s="3">
+        <v>19.032011880721566</v>
       </c>
       <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6016.1368372851712</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6019.0320118807213</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,14 +645,14 @@
       <c r="C6" s="2">
         <v>6000</v>
       </c>
-      <c r="D6" s="2">
-        <v>11.73044843212927</v>
+      <c r="D6" s="3">
+        <v>14.623502519883198</v>
       </c>
       <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6011.7304484321294</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6014.623502519883</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,14 +665,14 @@
       <c r="C7" s="2">
         <v>9000</v>
       </c>
-      <c r="D7" s="2">
-        <v>12.925499606304641</v>
+      <c r="D7" s="3">
+        <v>17.2628332879999</v>
       </c>
       <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9012.9254996063046</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9017.2628332879995</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,13 +685,13 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -689,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.9249393249216231</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4001.9249393249215</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,13 +725,13 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -731,13 +745,13 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -751,14 +765,14 @@
       <c r="C12" s="2">
         <v>4000</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.9408426312133835</v>
+      <c r="D12" s="3">
+        <v>3.8667159572110834</v>
       </c>
       <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4001.9408426312134</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4003.866715957211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,13 +785,13 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -791,14 +805,14 @@
       <c r="C14" s="2">
         <v>510</v>
       </c>
-      <c r="D14">
-        <v>0.12327489915710578</v>
+      <c r="D14" s="3">
+        <v>0.3687639872599035</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>510.12327489915708</v>
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>510.36876398725991</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,14 +825,14 @@
       <c r="C15" s="2">
         <v>2500</v>
       </c>
-      <c r="D15" s="2">
-        <v>1.0869301897051848</v>
+      <c r="D15" s="3">
+        <v>2.2905403364476014</v>
       </c>
       <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2501.0869301897051</v>
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2502.2905403364475</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,14 +845,14 @@
       <c r="C16" s="2">
         <v>6000</v>
       </c>
-      <c r="D16" s="2">
-        <v>13.177631341530473</v>
+      <c r="D16" s="3">
+        <v>16.071381864107565</v>
       </c>
       <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6013.1776313415303</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6016.0713818641079</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,14 +865,14 @@
       <c r="C17" s="2">
         <v>20000</v>
       </c>
-      <c r="D17" s="2">
-        <v>14.472299163798654</v>
+      <c r="D17" s="3">
+        <v>24.103960362852376</v>
       </c>
       <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20014.472299163797</v>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>20024.103960362852</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,14 +885,14 @@
       <c r="C18" s="2">
         <v>14000</v>
       </c>
-      <c r="D18" s="2">
-        <v>25.889124588361859</v>
+      <c r="D18" s="3">
+        <v>32.638870974089521</v>
       </c>
       <c r="E18">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2">
-        <v>14025.889124588362</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14032.63887097409</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,14 +905,14 @@
       <c r="C19" s="2">
         <v>60000</v>
       </c>
-      <c r="D19" s="2">
-        <v>58.225278936401494</v>
+      <c r="D19" s="3">
+        <v>87.12738884250814</v>
       </c>
       <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>60058.225278936399</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
+        <v>60087.127388842506</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,14 +925,14 @@
       <c r="C20" s="2">
         <v>4000</v>
       </c>
-      <c r="D20" s="2">
-        <v>10.764375986695757</v>
+      <c r="D20" s="3">
+        <v>12.694495504278638</v>
       </c>
       <c r="E20">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4010.7643759866955</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4012.6944955042786</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,14 +945,14 @@
       <c r="C21">
         <v>5000</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" s="3">
+        <v>2.4061741561520291</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>5000</v>
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5002.4061741561518</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,13 +965,13 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -971,14 +985,14 @@
       <c r="C23" s="2">
         <v>7000</v>
       </c>
-      <c r="D23" s="2">
-        <v>11.455771677103799</v>
+      <c r="D23" s="3">
+        <v>14.829928412066284</v>
       </c>
       <c r="E23">
-        <v>23</v>
-      </c>
-      <c r="F23" s="2">
-        <v>7011.4557716771042</v>
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7014.8299284120667</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,13 +1005,13 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1011,14 +1025,14 @@
       <c r="C25" s="2">
         <v>4000</v>
       </c>
-      <c r="D25" s="2">
-        <v>3.881685262426767</v>
+      <c r="D25" s="3">
+        <v>5.8084925895005446</v>
       </c>
       <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4003.8816852624268</v>
+        <v>12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4005.8084925895005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>141010</v>
-      </c>
-      <c r="D26" s="2">
-        <v>181.81</v>
-      </c>
-      <c r="F26" s="2">
-        <v>148191.81</v>
+        <v>152010</v>
+      </c>
+      <c r="D26" s="3">
+        <v>255.04999999999998</v>
+      </c>
+      <c r="F26" s="3">
+        <v>152265.05000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1063,14 +1077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1574,14 +1588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2085,14 +2099,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2583,7 +2597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2596,14 +2612,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2629,19 +2645,19 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2649,79 +2665,79 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>6019.0320118807203</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" s="3">
+        <v>1.4523308935077202</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" s="3">
+        <v>6020.484342774228</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>6014.623502519883</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" s="3">
+        <v>1.4512671652659654</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" s="3">
+        <v>6016.0747696851486</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>9017.2628332880013</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" s="3">
+        <v>2.1757733405991799</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" s="3">
+        <v>9019.4386066286006</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2729,39 +2745,39 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="3">
+        <v>4001.9249393249215</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0.96562357724768488</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" s="3">
+        <v>4002.8905629021692</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2769,19 +2785,19 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2789,39 +2805,39 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="3">
+        <v>4003.8667159572115</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0.96609210809879176</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>4004.83280806531</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2829,179 +2845,179 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="3">
+        <v>510.36876398725991</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0.12314676538635706</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>510.49191075264628</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="3">
+        <v>2502.2905403364475</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" s="3">
+        <v>0.60377712713430343</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>2502.894317463582</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" s="3">
+        <v>6016.071381864107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" s="3">
+        <v>1.4516165237504424</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="F16" s="3">
+        <v>6017.5229983878571</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" s="3">
+        <v>20024.103960362849</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" s="3">
+        <v>4.8316115845608101</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" s="3">
+        <v>20028.935571947408</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="3">
+        <v>14032.638870974091</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>3.3859323076411041</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F18" s="3">
+        <v>14036.024803281733</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" s="3">
+        <v>60087.127388842506</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" s="3">
+        <v>14.498409584248478</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="F19" s="3">
+        <v>60101.625798426758</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="3">
+        <v>4012.6944955042791</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0.96822216105946313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>4013.6627176653387</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" s="3">
+        <v>5002.4061741561518</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" s="3">
+        <v>1.2070294715596062</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="F21" s="3">
+        <v>5003.6132036277113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3009,39 +3025,39 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" s="3">
+        <v>7014.8299284120667</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" s="3">
+        <v>1.6926067509901932</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="F23" s="3">
+        <v>7016.522535163057</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3049,37 +3065,37 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" s="3">
+        <v>4005.8084925895009</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" s="3">
+        <v>0.96656063894989852</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="F25" s="3">
+        <v>4006.7750532284508</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" s="3">
+        <v>152265.05000000002</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="D26" s="3">
+        <v>36.74</v>
+      </c>
+      <c r="F26" s="3">
+        <v>152301.79</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3107,14 +3125,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3618,14 +3636,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4129,14 +4147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4640,14 +4658,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5151,14 +5169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5662,14 +5680,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6173,14 +6191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
